--- a/KnowledgeGraph/data/capital_operation.xlsx
+++ b/KnowledgeGraph/data/capital_operation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="20976" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,111 +14,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>名词</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>定义</t>
   </si>
   <si>
     <t>理财产品托管人/托管行/托管人</t>
   </si>
   <si>
+    <t>理财产品代理人/代理行/代理人</t>
+  </si>
+  <si>
     <t>按照相关规定，对资产管理部门合法、合规地使用资金进行监管，不负责理财产品资金运营是盈是亏，只按托管规模收取托管费。</t>
   </si>
   <si>
     <t>理财托管账户</t>
   </si>
   <si>
+    <t>理财管理账户，代理账户</t>
+  </si>
+  <si>
     <t>指理财计划管理人以理财产品的名义在托管人处单独开立的资金管理账户，理 财计划资金的一切收支活动，均必须通过该账户进行。</t>
   </si>
   <si>
     <t>资产管理人/投资管理人</t>
   </si>
   <si>
+    <t>资产负责人/投资负责人</t>
+  </si>
+  <si>
     <t>投资管理人是指接受受托人的委托，根据委托人制定的投资策略和战略资产配置，为企业年金受益人的利益，采取资产组合方式对企业年金基金财产进行投资管理的专业机构。资产管理主要负责理财产品的发行、运营等工作，同时，依据经营业绩收取管理费。</t>
   </si>
   <si>
     <t>认购人</t>
   </si>
   <si>
+    <t>申请购买人</t>
+  </si>
+  <si>
     <t>指在认购期期间签署理财计划销售协议并向理财计划管理人交付认购资金的个人和机构投资者</t>
   </si>
   <si>
     <t>理财计划份额持有人/持有人</t>
   </si>
   <si>
+    <t>理财计划份额拥有人/拥有人</t>
+  </si>
+  <si>
     <t xml:space="preserve">指其认购/申购申请，经过银行确认认购/申购成功，从 而持有理财计划份额的投资者。 </t>
   </si>
   <si>
     <t>开放日</t>
   </si>
   <si>
+    <t>开放时间，购买时间</t>
+  </si>
+  <si>
     <t>是理财产品开放买入，或者开放赎回的日期</t>
   </si>
   <si>
     <t>认购期</t>
   </si>
   <si>
+    <t>申请购买</t>
+  </si>
+  <si>
     <t xml:space="preserve">指理财计划成立前，理财计划管理人接受理财计划认购的时间。但在该期间内如 认购人提交认购申请的认购份额提前达到《产品说明书》所载的发行规模上限的，管理人有权 宣布认购期提前结束，停止接受认购申请，该情况下，产品登记日和产品成立日，维持《产品 说明书》的约定，保持不变。 </t>
   </si>
   <si>
     <t>封闭期</t>
   </si>
   <si>
+    <t>冻结期，不能取钱期，不流动期</t>
+  </si>
+  <si>
     <t>封闭期是指在理财产品申购期或认购成功后的一定时间以内,账户上的理财份额被冻结,不能随意进行买卖。</t>
   </si>
   <si>
     <t>理财计划估值</t>
   </si>
   <si>
+    <t>方案估值，计划估值，理财估值</t>
+  </si>
+  <si>
     <t>指计算评估理财计划资产以确定理财计划份额单位净值的过程。</t>
   </si>
   <si>
     <t>估值日</t>
   </si>
   <si>
+    <t>估值期，</t>
+  </si>
+  <si>
     <t>估值日是指對基金資產進行估值的實際日期，大部分基金每個開放日都對基金資產進行估值，即每個開放日都是估值日。</t>
   </si>
   <si>
     <t>资金划转</t>
   </si>
   <si>
+    <t>资金流动，资金转移</t>
+  </si>
+  <si>
     <t>就是资金的流动与转移。</t>
   </si>
   <si>
     <t>到期清算</t>
   </si>
   <si>
+    <t>清算，计算价值</t>
+  </si>
+  <si>
     <t>在产品到期后对理财计划资产价值的计算。</t>
   </si>
   <si>
     <t>清算期</t>
   </si>
   <si>
+    <t>清算日，结算日</t>
+  </si>
+  <si>
     <t>在购买理财产品时会发现，在产品到期日，产品却不能在到期后当天获得本金应该产生的收益，而是进入清算期，这个清算期间，本金不会产生任何利息。常说的“T+N”，T是指产品的到期日，N指清算期天数。</t>
   </si>
   <si>
     <t>清算收益分配</t>
   </si>
   <si>
+    <t>剩余价值，剩余金额</t>
+  </si>
+  <si>
     <t xml:space="preserve">指本产品在清算期对经清算的剩余理财计划资产进行的分配。 </t>
   </si>
   <si>
     <t>挂单</t>
   </si>
   <si>
+    <t>交易请求</t>
+  </si>
+  <si>
     <t>挂单就是发出交易请求，是达到成交的第一步。挂单有买单和卖单，买单包括买进的出价和希望买进的具体数量；卖单则包括卖出的要价和希望卖出的数量的具体数量。买单和卖单都会按价格优先和时间优先的原则进行有序排列，令当前最好价一目了然。</t>
   </si>
   <si>
     <t>银保监会</t>
   </si>
   <si>
+    <t>中国银行保险监督管理委员会</t>
+  </si>
+  <si>
     <t xml:space="preserve">指中国银行保险监督管理委员会。 </t>
   </si>
   <si>
     <t>交易日</t>
+  </si>
+  <si>
+    <t>交易期，交易时间，开盘日</t>
   </si>
   <si>
     <t xml:space="preserve">指上海证券交易所和深圳证券交易所的正常开盘交易日。 </t>
@@ -130,11 +184,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,28 +200,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +258,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,37 +273,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,54 +311,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,33 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +608,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,144 +661,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,156 +1117,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/KnowledgeGraph/data/capital_operation.xlsx
+++ b/KnowledgeGraph/data/capital_operation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20976" windowHeight="9684"/>
+    <workbookView windowWidth="17304" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <t>定义</t>
   </si>
   <si>
-    <t>理财产品托管人/托管行/托管人</t>
-  </si>
-  <si>
-    <t>理财产品代理人/代理行/代理人</t>
+    <t>理财产品托管人</t>
+  </si>
+  <si>
+    <t>理财产品代理人,代理行,代理人,托管行,托管人</t>
   </si>
   <si>
     <t>按照相关规定，对资产管理部门合法、合规地使用资金进行监管，不负责理财产品资金运营是盈是亏，只按托管规模收取托管费。</t>
@@ -43,10 +43,10 @@
     <t>指理财计划管理人以理财产品的名义在托管人处单独开立的资金管理账户，理 财计划资金的一切收支活动，均必须通过该账户进行。</t>
   </si>
   <si>
-    <t>资产管理人/投资管理人</t>
-  </si>
-  <si>
-    <t>资产负责人/投资负责人</t>
+    <t>资产管理人</t>
+  </si>
+  <si>
+    <t>资产负责人,投资负责人,投资管理人</t>
   </si>
   <si>
     <t>投资管理人是指接受受托人的委托，根据委托人制定的投资策略和战略资产配置，为企业年金受益人的利益，采取资产组合方式对企业年金基金财产进行投资管理的专业机构。资产管理主要负责理财产品的发行、运营等工作，同时，依据经营业绩收取管理费。</t>
@@ -61,10 +61,10 @@
     <t>指在认购期期间签署理财计划销售协议并向理财计划管理人交付认购资金的个人和机构投资者</t>
   </si>
   <si>
-    <t>理财计划份额持有人/持有人</t>
-  </si>
-  <si>
-    <t>理财计划份额拥有人/拥有人</t>
+    <t>理财计划份额持有人</t>
+  </si>
+  <si>
+    <t>理财计划份额拥有人,拥有人,持有人</t>
   </si>
   <si>
     <t xml:space="preserve">指其认购/申购申请，经过银行确认认购/申购成功，从 而持有理财计划份额的投资者。 </t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -204,6 +204,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -212,15 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,51 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -303,6 +288,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -318,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -336,6 +329,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,37 +356,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,133 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +568,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -583,17 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,15 +614,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
